--- a/edited/elective_list/gsc.xlsx
+++ b/edited/elective_list/gsc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\졸업학점 프로그램 제작\edited\elective_list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GIST_Credit_Analysis_Program\edited\elective_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94807A97-DF3C-4901-A884-9DD4E2831D14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEC75C5-7610-4E2B-B5CA-2ED96859D57A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="6432" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="225">
   <si>
     <t>교과목</t>
   </si>
@@ -751,6 +751,10 @@
   </si>
   <si>
     <t>과학자'문학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅히스토리: 우주와 인간의 역사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1186,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D308"/>
+  <dimension ref="A1:D328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="A310" sqref="A310"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1216,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -1230,7 +1234,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -1244,7 +1248,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -1258,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -1272,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1286,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -1300,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -1314,10 +1318,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -1328,7 +1332,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -1342,7 +1346,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -1356,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -1370,7 +1374,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
@@ -1384,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D14" t="s">
         <v>32</v>
@@ -1398,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -1412,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D16" t="s">
         <v>34</v>
@@ -1426,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -1440,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D18" t="s">
         <v>35</v>
@@ -1454,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
@@ -1468,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D20" t="s">
         <v>49</v>
@@ -1482,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D21" t="s">
         <v>37</v>
@@ -1496,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -1510,7 +1514,7 @@
         <v>3</v>
       </c>
       <c r="C23">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -1524,7 +1528,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -1538,7 +1542,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
@@ -1552,7 +1556,7 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -1566,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
@@ -1574,245 +1578,245 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <v>2019</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>2019</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <v>2019</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -1821,656 +1825,656 @@
         <v>2019</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
       <c r="C56">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D61" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
       <c r="C62">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D62" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
       <c r="C63">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D63" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D64" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D65" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66">
         <v>2018</v>
       </c>
       <c r="D66" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67">
         <v>2018</v>
       </c>
       <c r="D67" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B68">
         <v>3</v>
       </c>
       <c r="C68">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
       <c r="C69">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B71">
         <v>3</v>
       </c>
       <c r="C71">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B72">
         <v>3</v>
       </c>
       <c r="C72">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D72" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D74" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D76" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
       <c r="C77">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D77" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C78">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C79">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D79" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C80">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D83" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D84" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D85" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
       <c r="C86">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D86" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B87">
         <v>2</v>
       </c>
       <c r="C87">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D87" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88">
         <v>2017</v>
       </c>
       <c r="D88" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89">
         <v>2017</v>
       </c>
       <c r="D89" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90">
         <v>2017</v>
       </c>
       <c r="D90" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91">
         <v>2017</v>
       </c>
       <c r="D91" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -2479,12 +2483,12 @@
         <v>2017</v>
       </c>
       <c r="D92" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -2493,712 +2497,712 @@
         <v>2017</v>
       </c>
       <c r="D93" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C94">
         <v>2017</v>
       </c>
       <c r="D94" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C95">
         <v>2017</v>
       </c>
       <c r="D95" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C96">
         <v>2017</v>
       </c>
       <c r="D96" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C97">
         <v>2017</v>
       </c>
       <c r="D97" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98">
         <v>2017</v>
       </c>
       <c r="D98" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99">
         <v>2017</v>
       </c>
       <c r="D99" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D100" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B101">
         <v>3</v>
       </c>
       <c r="C101">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D101" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B102">
         <v>3</v>
       </c>
       <c r="C102">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D102" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B103">
         <v>3</v>
       </c>
       <c r="C103">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D103" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B104">
         <v>3</v>
       </c>
       <c r="C104">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D104" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B105">
         <v>3</v>
       </c>
       <c r="C105">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D105" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D106" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B107">
         <v>2</v>
       </c>
       <c r="C107">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B108">
         <v>2</v>
       </c>
       <c r="C108">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D108" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B109">
         <v>2</v>
       </c>
       <c r="C109">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D109" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D110" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C111">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D111" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C112">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D112" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C113">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D113" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B114">
         <v>2</v>
       </c>
       <c r="C114">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D114" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D115" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D116" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D117" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D118" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
       <c r="C119">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D119" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C120">
         <v>2016</v>
       </c>
       <c r="D120" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C121">
         <v>2016</v>
       </c>
       <c r="D121" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C122">
         <v>2016</v>
       </c>
       <c r="D122" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C123">
         <v>2016</v>
       </c>
       <c r="D123" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B124">
         <v>3</v>
       </c>
       <c r="C124">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D124" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="B125">
         <v>3</v>
       </c>
       <c r="C125">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D125" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B126">
         <v>3</v>
       </c>
       <c r="C126">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D126" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D127" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D128" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="B129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D129" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="B130">
         <v>3</v>
       </c>
       <c r="C130">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D130" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="B131">
         <v>3</v>
       </c>
       <c r="C131">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D131" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D132" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C133">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D133" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C134">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D134" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="B135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C135">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D135" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="B136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D136" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D137" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="B138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C138">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D138" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C139">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D139" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D140" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D141" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C142">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D142" t="s">
-        <v>189</v>
+        <v>70</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C143">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D143" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B144">
         <v>3</v>
@@ -3207,12 +3211,12 @@
         <v>2015</v>
       </c>
       <c r="D144" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B145">
         <v>3</v>
@@ -3221,12 +3225,12 @@
         <v>2015</v>
       </c>
       <c r="D145" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B146">
         <v>3</v>
@@ -3235,12 +3239,12 @@
         <v>2015</v>
       </c>
       <c r="D146" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B147">
         <v>3</v>
@@ -3249,12 +3253,12 @@
         <v>2015</v>
       </c>
       <c r="D147" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B148">
         <v>3</v>
@@ -3263,12 +3267,12 @@
         <v>2015</v>
       </c>
       <c r="D148" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B149">
         <v>3</v>
@@ -3277,12 +3281,12 @@
         <v>2015</v>
       </c>
       <c r="D149" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B150">
         <v>3</v>
@@ -3291,12 +3295,12 @@
         <v>2015</v>
       </c>
       <c r="D150" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B151">
         <v>3</v>
@@ -3305,12 +3309,12 @@
         <v>2015</v>
       </c>
       <c r="D151" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B152">
         <v>3</v>
@@ -3319,12 +3323,12 @@
         <v>2015</v>
       </c>
       <c r="D152" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B153">
         <v>3</v>
@@ -3333,12 +3337,12 @@
         <v>2015</v>
       </c>
       <c r="D153" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B154">
         <v>3</v>
@@ -3347,12 +3351,12 @@
         <v>2015</v>
       </c>
       <c r="D154" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B155">
         <v>3</v>
@@ -3361,12 +3365,12 @@
         <v>2015</v>
       </c>
       <c r="D155" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B156">
         <v>3</v>
@@ -3375,12 +3379,12 @@
         <v>2015</v>
       </c>
       <c r="D156" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B157">
         <v>3</v>
@@ -3389,12 +3393,12 @@
         <v>2015</v>
       </c>
       <c r="D157" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="B158">
         <v>3</v>
@@ -3403,12 +3407,12 @@
         <v>2015</v>
       </c>
       <c r="D158" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="B159">
         <v>3</v>
@@ -3417,12 +3421,12 @@
         <v>2015</v>
       </c>
       <c r="D159" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="B160">
         <v>3</v>
@@ -3431,12 +3435,12 @@
         <v>2015</v>
       </c>
       <c r="D160" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="B161">
         <v>3</v>
@@ -3445,12 +3449,12 @@
         <v>2015</v>
       </c>
       <c r="D161" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="B162">
         <v>3</v>
@@ -3459,12 +3463,12 @@
         <v>2015</v>
       </c>
       <c r="D162" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="B163">
         <v>3</v>
@@ -3473,12 +3477,12 @@
         <v>2015</v>
       </c>
       <c r="D163" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="B164">
         <v>3</v>
@@ -3487,12 +3491,12 @@
         <v>2015</v>
       </c>
       <c r="D164" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="B165">
         <v>3</v>
@@ -3501,12 +3505,12 @@
         <v>2015</v>
       </c>
       <c r="D165" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="B166">
         <v>3</v>
@@ -3515,12 +3519,12 @@
         <v>2015</v>
       </c>
       <c r="D166" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B167">
         <v>3</v>
@@ -3529,12 +3533,12 @@
         <v>2015</v>
       </c>
       <c r="D167" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="B168">
         <v>3</v>
@@ -3543,12 +3547,12 @@
         <v>2015</v>
       </c>
       <c r="D168" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="B169">
         <v>3</v>
@@ -3557,12 +3561,12 @@
         <v>2015</v>
       </c>
       <c r="D169" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="B170">
         <v>3</v>
@@ -3571,12 +3575,12 @@
         <v>2015</v>
       </c>
       <c r="D170" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="B171">
         <v>3</v>
@@ -3585,12 +3589,12 @@
         <v>2015</v>
       </c>
       <c r="D171" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="B172">
         <v>3</v>
@@ -3599,12 +3603,12 @@
         <v>2015</v>
       </c>
       <c r="D172" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="B173">
         <v>3</v>
@@ -3613,12 +3617,12 @@
         <v>2015</v>
       </c>
       <c r="D173" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="B174">
         <v>3</v>
@@ -3627,12 +3631,12 @@
         <v>2015</v>
       </c>
       <c r="D174" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="B175">
         <v>3</v>
@@ -3641,12 +3645,12 @@
         <v>2015</v>
       </c>
       <c r="D175" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="B176">
         <v>3</v>
@@ -3655,12 +3659,12 @@
         <v>2015</v>
       </c>
       <c r="D176" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="B177">
         <v>3</v>
@@ -3669,12 +3673,12 @@
         <v>2015</v>
       </c>
       <c r="D177" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B178">
         <v>3</v>
@@ -3683,12 +3687,12 @@
         <v>2015</v>
       </c>
       <c r="D178" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B179">
         <v>3</v>
@@ -3697,12 +3701,12 @@
         <v>2015</v>
       </c>
       <c r="D179" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B180">
         <v>3</v>
@@ -3711,12 +3715,12 @@
         <v>2015</v>
       </c>
       <c r="D180" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="B181">
         <v>3</v>
@@ -3725,12 +3729,12 @@
         <v>2015</v>
       </c>
       <c r="D181" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="B182">
         <v>3</v>
@@ -3739,12 +3743,12 @@
         <v>2015</v>
       </c>
       <c r="D182" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -3753,12 +3757,12 @@
         <v>2015</v>
       </c>
       <c r="D183" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="B184">
         <v>3</v>
@@ -3767,12 +3771,12 @@
         <v>2015</v>
       </c>
       <c r="D184" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
       <c r="B185">
         <v>3</v>
@@ -3781,12 +3785,12 @@
         <v>2015</v>
       </c>
       <c r="D185" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="B186">
         <v>3</v>
@@ -3795,12 +3799,12 @@
         <v>2015</v>
       </c>
       <c r="D186" t="s">
-        <v>194</v>
+        <v>129</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="B187">
         <v>3</v>
@@ -3809,12 +3813,12 @@
         <v>2015</v>
       </c>
       <c r="D187" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="B188">
         <v>3</v>
@@ -3823,12 +3827,12 @@
         <v>2015</v>
       </c>
       <c r="D188" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="B189">
         <v>3</v>
@@ -3837,12 +3841,12 @@
         <v>2015</v>
       </c>
       <c r="D189" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B190">
         <v>3</v>
@@ -3851,12 +3855,12 @@
         <v>2015</v>
       </c>
       <c r="D190" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="B191">
         <v>3</v>
@@ -3865,12 +3869,12 @@
         <v>2015</v>
       </c>
       <c r="D191" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -3879,12 +3883,12 @@
         <v>2015</v>
       </c>
       <c r="D192" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -3893,12 +3897,12 @@
         <v>2015</v>
       </c>
       <c r="D193" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="B194">
         <v>3</v>
@@ -3907,12 +3911,12 @@
         <v>2015</v>
       </c>
       <c r="D194" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="B195">
         <v>3</v>
@@ -3921,12 +3925,12 @@
         <v>2015</v>
       </c>
       <c r="D195" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="B196">
         <v>3</v>
@@ -3935,12 +3939,12 @@
         <v>2015</v>
       </c>
       <c r="D196" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="B197">
         <v>3</v>
@@ -3949,12 +3953,12 @@
         <v>2015</v>
       </c>
       <c r="D197" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="B198">
         <v>3</v>
@@ -3963,40 +3967,40 @@
         <v>2015</v>
       </c>
       <c r="D198" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="B199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C199">
         <v>2015</v>
       </c>
       <c r="D199" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C200">
         <v>2015</v>
       </c>
       <c r="D200" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="B201">
         <v>3</v>
@@ -4005,26 +4009,26 @@
         <v>2015</v>
       </c>
       <c r="D201" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C202">
         <v>2015</v>
       </c>
       <c r="D202" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="B203">
         <v>3</v>
@@ -4033,26 +4037,26 @@
         <v>2015</v>
       </c>
       <c r="D203" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C204">
         <v>2015</v>
       </c>
       <c r="D204" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B205">
         <v>3</v>
@@ -4061,12 +4065,12 @@
         <v>2015</v>
       </c>
       <c r="D205" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B206">
         <v>3</v>
@@ -4075,12 +4079,12 @@
         <v>2015</v>
       </c>
       <c r="D206" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B207">
         <v>3</v>
@@ -4089,12 +4093,12 @@
         <v>2015</v>
       </c>
       <c r="D207" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="B208">
         <v>3</v>
@@ -4103,460 +4107,460 @@
         <v>2015</v>
       </c>
       <c r="D208" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C209">
         <v>2015</v>
       </c>
       <c r="D209" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C210">
         <v>2015</v>
       </c>
       <c r="D210" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C211">
         <v>2015</v>
       </c>
       <c r="D211" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C212">
         <v>2015</v>
       </c>
       <c r="D212" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C213">
         <v>2015</v>
       </c>
       <c r="D213" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C214">
         <v>2015</v>
       </c>
       <c r="D214" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C215">
         <v>2015</v>
       </c>
       <c r="D215" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C216">
         <v>2015</v>
       </c>
       <c r="D216" t="s">
-        <v>65</v>
+        <v>180</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C217">
         <v>2015</v>
       </c>
       <c r="D217" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C218">
         <v>2015</v>
       </c>
       <c r="D218" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C219">
         <v>2015</v>
       </c>
       <c r="D219" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="B220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C220">
         <v>2015</v>
       </c>
       <c r="D220" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>73</v>
+        <v>197</v>
       </c>
       <c r="B221">
         <v>3</v>
       </c>
       <c r="C221">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D221" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C222">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D222" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="B223">
         <v>3</v>
       </c>
       <c r="C223">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D223" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="B224">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C224">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D224" t="s">
-        <v>78</v>
+        <v>204</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="B225">
         <v>3</v>
       </c>
       <c r="C225">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D225" t="s">
-        <v>79</v>
+        <v>205</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="B226">
         <v>3</v>
       </c>
       <c r="C226">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D226" t="s">
-        <v>81</v>
+        <v>206</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="B227">
         <v>3</v>
       </c>
       <c r="C227">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D227" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="B228">
         <v>3</v>
       </c>
       <c r="C228">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D228" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C229">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D229" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C230">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D230" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C231">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D231" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C232">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D232" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C233">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D233" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C234">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D234" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C235">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D235" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C236">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D236" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C237">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D237" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C238">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D238" t="s">
-        <v>189</v>
+        <v>68</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C239">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D239" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B240">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C240">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D240" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B241">
         <v>3</v>
@@ -4565,12 +4569,12 @@
         <v>2014</v>
       </c>
       <c r="D241" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B242">
         <v>3</v>
@@ -4579,12 +4583,12 @@
         <v>2014</v>
       </c>
       <c r="D242" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B243">
         <v>3</v>
@@ -4593,12 +4597,12 @@
         <v>2014</v>
       </c>
       <c r="D243" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B244">
         <v>3</v>
@@ -4607,12 +4611,12 @@
         <v>2014</v>
       </c>
       <c r="D244" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B245">
         <v>3</v>
@@ -4621,12 +4625,12 @@
         <v>2014</v>
       </c>
       <c r="D245" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B246">
         <v>3</v>
@@ -4635,12 +4639,12 @@
         <v>2014</v>
       </c>
       <c r="D246" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B247">
         <v>3</v>
@@ -4649,12 +4653,12 @@
         <v>2014</v>
       </c>
       <c r="D247" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B248">
         <v>3</v>
@@ -4663,12 +4667,12 @@
         <v>2014</v>
       </c>
       <c r="D248" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B249">
         <v>3</v>
@@ -4677,12 +4681,12 @@
         <v>2014</v>
       </c>
       <c r="D249" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B250">
         <v>3</v>
@@ -4691,12 +4695,12 @@
         <v>2014</v>
       </c>
       <c r="D250" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B251">
         <v>3</v>
@@ -4705,12 +4709,12 @@
         <v>2014</v>
       </c>
       <c r="D251" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B252">
         <v>3</v>
@@ -4719,12 +4723,12 @@
         <v>2014</v>
       </c>
       <c r="D252" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B253">
         <v>3</v>
@@ -4733,12 +4737,12 @@
         <v>2014</v>
       </c>
       <c r="D253" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B254">
         <v>3</v>
@@ -4747,12 +4751,12 @@
         <v>2014</v>
       </c>
       <c r="D254" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="B255">
         <v>3</v>
@@ -4761,12 +4765,12 @@
         <v>2014</v>
       </c>
       <c r="D255" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="B256">
         <v>3</v>
@@ -4775,12 +4779,12 @@
         <v>2014</v>
       </c>
       <c r="D256" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -4789,12 +4793,12 @@
         <v>2014</v>
       </c>
       <c r="D257" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="B258">
         <v>3</v>
@@ -4803,12 +4807,12 @@
         <v>2014</v>
       </c>
       <c r="D258" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="B259">
         <v>3</v>
@@ -4817,12 +4821,12 @@
         <v>2014</v>
       </c>
       <c r="D259" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="B260">
         <v>3</v>
@@ -4831,12 +4835,12 @@
         <v>2014</v>
       </c>
       <c r="D260" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="B261">
         <v>3</v>
@@ -4845,12 +4849,12 @@
         <v>2014</v>
       </c>
       <c r="D261" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="B262">
         <v>3</v>
@@ -4859,12 +4863,12 @@
         <v>2014</v>
       </c>
       <c r="D262" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B263">
         <v>3</v>
@@ -4873,12 +4877,12 @@
         <v>2014</v>
       </c>
       <c r="D263" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="B264">
         <v>3</v>
@@ -4887,12 +4891,12 @@
         <v>2014</v>
       </c>
       <c r="D264" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="B265">
         <v>3</v>
@@ -4901,12 +4905,12 @@
         <v>2014</v>
       </c>
       <c r="D265" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="B266">
         <v>3</v>
@@ -4915,12 +4919,12 @@
         <v>2014</v>
       </c>
       <c r="D266" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="B267">
         <v>3</v>
@@ -4929,12 +4933,12 @@
         <v>2014</v>
       </c>
       <c r="D267" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="B268">
         <v>3</v>
@@ -4943,12 +4947,12 @@
         <v>2014</v>
       </c>
       <c r="D268" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B269">
         <v>3</v>
@@ -4957,12 +4961,12 @@
         <v>2014</v>
       </c>
       <c r="D269" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="B270">
         <v>3</v>
@@ -4971,12 +4975,12 @@
         <v>2014</v>
       </c>
       <c r="D270" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="B271">
         <v>3</v>
@@ -4985,12 +4989,12 @@
         <v>2014</v>
       </c>
       <c r="D271" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="B272">
         <v>3</v>
@@ -4999,12 +5003,12 @@
         <v>2014</v>
       </c>
       <c r="D272" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="B273">
         <v>3</v>
@@ -5013,12 +5017,12 @@
         <v>2014</v>
       </c>
       <c r="D273" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="B274">
         <v>3</v>
@@ -5027,12 +5031,12 @@
         <v>2014</v>
       </c>
       <c r="D274" t="s">
-        <v>193</v>
+        <v>119</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="B275">
         <v>3</v>
@@ -5041,12 +5045,12 @@
         <v>2014</v>
       </c>
       <c r="D275" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="B276">
         <v>3</v>
@@ -5055,12 +5059,12 @@
         <v>2014</v>
       </c>
       <c r="D276" t="s">
-        <v>195</v>
+        <v>122</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="B277">
         <v>3</v>
@@ -5069,12 +5073,12 @@
         <v>2014</v>
       </c>
       <c r="D277" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="B278">
         <v>3</v>
@@ -5083,12 +5087,12 @@
         <v>2014</v>
       </c>
       <c r="D278" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="B279">
         <v>3</v>
@@ -5097,12 +5101,12 @@
         <v>2014</v>
       </c>
       <c r="D279" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="B280">
         <v>3</v>
@@ -5111,12 +5115,12 @@
         <v>2014</v>
       </c>
       <c r="D280" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="B281">
         <v>3</v>
@@ -5125,12 +5129,12 @@
         <v>2014</v>
       </c>
       <c r="D281" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="B282">
         <v>3</v>
@@ -5139,12 +5143,12 @@
         <v>2014</v>
       </c>
       <c r="D282" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="B283">
         <v>3</v>
@@ -5153,12 +5157,12 @@
         <v>2014</v>
       </c>
       <c r="D283" t="s">
-        <v>212</v>
+        <v>133</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="B284">
         <v>3</v>
@@ -5167,12 +5171,12 @@
         <v>2014</v>
       </c>
       <c r="D284" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="B285">
         <v>3</v>
@@ -5181,12 +5185,12 @@
         <v>2014</v>
       </c>
       <c r="D285" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="B286">
         <v>3</v>
@@ -5195,12 +5199,12 @@
         <v>2014</v>
       </c>
       <c r="D286" t="s">
-        <v>217</v>
+        <v>140</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="B287">
         <v>3</v>
@@ -5209,26 +5213,26 @@
         <v>2014</v>
       </c>
       <c r="D287" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="B288">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C288">
         <v>2014</v>
       </c>
       <c r="D288" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="B289">
         <v>3</v>
@@ -5237,26 +5241,26 @@
         <v>2014</v>
       </c>
       <c r="D289" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="B290">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C290">
         <v>2014</v>
       </c>
       <c r="D290" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="B291">
         <v>3</v>
@@ -5265,26 +5269,26 @@
         <v>2014</v>
       </c>
       <c r="D291" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="B292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C292">
         <v>2014</v>
       </c>
       <c r="D292" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="B293">
         <v>3</v>
@@ -5293,26 +5297,26 @@
         <v>2014</v>
       </c>
       <c r="D293" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="B294">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C294">
         <v>2014</v>
       </c>
       <c r="D294" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="B295">
         <v>3</v>
@@ -5321,12 +5325,12 @@
         <v>2014</v>
       </c>
       <c r="D295" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B296">
         <v>3</v>
@@ -5334,175 +5338,455 @@
       <c r="C296">
         <v>2014</v>
       </c>
-      <c r="D296" s="3" t="s">
-        <v>223</v>
+      <c r="D296" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="B297">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C297">
         <v>2014</v>
       </c>
       <c r="D297" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="B298">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C298">
         <v>2014</v>
       </c>
       <c r="D298" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="B299">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C299">
         <v>2014</v>
       </c>
       <c r="D299" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="B300">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C300">
         <v>2014</v>
       </c>
       <c r="D300" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="B301">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C301">
         <v>2014</v>
       </c>
       <c r="D301" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="B302">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C302">
         <v>2014</v>
       </c>
       <c r="D302" t="s">
-        <v>36</v>
+        <v>211</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="B303">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C303">
         <v>2014</v>
       </c>
       <c r="D303" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C304">
         <v>2014</v>
       </c>
       <c r="D304" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="B305">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C305">
         <v>2014</v>
       </c>
       <c r="D305" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>67</v>
+        <v>215</v>
       </c>
       <c r="B306">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C306">
         <v>2014</v>
       </c>
       <c r="D306" t="s">
-        <v>68</v>
+        <v>217</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="B307">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C307">
         <v>2014</v>
       </c>
       <c r="D307" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
+        <v>8</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+      <c r="C308">
+        <v>2014</v>
+      </c>
+      <c r="D308" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A309" t="s">
+        <v>218</v>
+      </c>
+      <c r="B309">
+        <v>3</v>
+      </c>
+      <c r="C309">
+        <v>2014</v>
+      </c>
+      <c r="D309" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A310" t="s">
+        <v>196</v>
+      </c>
+      <c r="B310">
+        <v>2</v>
+      </c>
+      <c r="C310">
+        <v>2014</v>
+      </c>
+      <c r="D310" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A311" t="s">
+        <v>197</v>
+      </c>
+      <c r="B311">
+        <v>3</v>
+      </c>
+      <c r="C311">
+        <v>2014</v>
+      </c>
+      <c r="D311" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A312" t="s">
+        <v>46</v>
+      </c>
+      <c r="B312">
+        <v>2</v>
+      </c>
+      <c r="C312">
+        <v>2014</v>
+      </c>
+      <c r="D312" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A313" t="s">
+        <v>200</v>
+      </c>
+      <c r="B313">
+        <v>3</v>
+      </c>
+      <c r="C313">
+        <v>2014</v>
+      </c>
+      <c r="D313" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A314" t="s">
+        <v>9</v>
+      </c>
+      <c r="B314">
+        <v>2</v>
+      </c>
+      <c r="C314">
+        <v>2014</v>
+      </c>
+      <c r="D314" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A315" t="s">
+        <v>220</v>
+      </c>
+      <c r="B315">
+        <v>3</v>
+      </c>
+      <c r="C315">
+        <v>2014</v>
+      </c>
+      <c r="D315" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A316" t="s">
+        <v>221</v>
+      </c>
+      <c r="B316">
+        <v>3</v>
+      </c>
+      <c r="C316">
+        <v>2014</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A317" t="s">
+        <v>38</v>
+      </c>
+      <c r="B317">
+        <v>2</v>
+      </c>
+      <c r="C317">
+        <v>2014</v>
+      </c>
+      <c r="D317" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A318" t="s">
+        <v>39</v>
+      </c>
+      <c r="B318">
+        <v>2</v>
+      </c>
+      <c r="C318">
+        <v>2014</v>
+      </c>
+      <c r="D318" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A319" t="s">
+        <v>40</v>
+      </c>
+      <c r="B319">
+        <v>2</v>
+      </c>
+      <c r="C319">
+        <v>2014</v>
+      </c>
+      <c r="D319" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A320" t="s">
+        <v>40</v>
+      </c>
+      <c r="B320">
+        <v>2</v>
+      </c>
+      <c r="C320">
+        <v>2014</v>
+      </c>
+      <c r="D320" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A321" t="s">
+        <v>17</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+      <c r="C321">
+        <v>2014</v>
+      </c>
+      <c r="D321" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A322" t="s">
+        <v>18</v>
+      </c>
+      <c r="B322">
+        <v>2</v>
+      </c>
+      <c r="C322">
+        <v>2014</v>
+      </c>
+      <c r="D322" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A323" t="s">
+        <v>61</v>
+      </c>
+      <c r="B323">
+        <v>2</v>
+      </c>
+      <c r="C323">
+        <v>2014</v>
+      </c>
+      <c r="D323" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A324" t="s">
+        <v>64</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>2014</v>
+      </c>
+      <c r="D324" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A325" t="s">
+        <v>64</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>2014</v>
+      </c>
+      <c r="D325" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A326" t="s">
+        <v>67</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>2014</v>
+      </c>
+      <c r="D326" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A327" t="s">
+        <v>69</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>2014</v>
+      </c>
+      <c r="D327" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A328" t="s">
         <v>71</v>
       </c>
-      <c r="B308">
+      <c r="B328">
         <v>1</v>
       </c>
-      <c r="C308">
-        <v>2014</v>
-      </c>
-      <c r="D308" t="s">
+      <c r="C328">
+        <v>2014</v>
+      </c>
+      <c r="D328" t="s">
         <v>72</v>
       </c>
     </row>

--- a/edited/elective_list/gsc.xlsx
+++ b/edited/elective_list/gsc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GIST_Credit_Analysis_Program\edited\elective_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEC75C5-7610-4E2B-B5CA-2ED96859D57A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1E019A-0D1C-4AA4-B9CA-54FEFBABF14A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="2976" windowWidth="11460" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="231">
   <si>
     <t>교과목</t>
   </si>
@@ -755,6 +755,30 @@
   </si>
   <si>
     <t>빅히스토리: 우주와 인간의 역사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2794</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2795</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대사회사상의 흐름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문명으로 보는 21세기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2823</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학의 위대한 순간들 - AI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1190,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D328"/>
+  <dimension ref="A1:D332"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1298,63 +1322,63 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>2021</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>2021</v>
       </c>
       <c r="D9" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>2021</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>2021</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -1363,12 +1387,12 @@
         <v>2021</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1377,12 +1401,12 @@
         <v>2021</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1391,40 +1415,40 @@
         <v>2021</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>2021</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>2021</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1433,12 +1457,12 @@
         <v>2021</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1447,26 +1471,26 @@
         <v>2021</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>2021</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1475,68 +1499,68 @@
         <v>2021</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>2021</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -1545,12 +1569,12 @@
         <v>2020</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1559,12 +1583,12 @@
         <v>2020</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1573,40 +1597,40 @@
         <v>2020</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>2020</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <v>2020</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -1615,54 +1639,54 @@
         <v>2020</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>2020</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>2020</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>2020</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1671,68 +1695,68 @@
         <v>2020</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>2020</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>2020</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>2020</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>2020</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1741,12 +1765,12 @@
         <v>2020</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -1755,82 +1779,82 @@
         <v>2020</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41">
         <v>2020</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -1839,12 +1863,12 @@
         <v>2019</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -1853,12 +1877,12 @@
         <v>2019</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -1867,54 +1891,54 @@
         <v>2019</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>2019</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50">
         <v>2019</v>
       </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51">
         <v>2019</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -1923,54 +1947,54 @@
         <v>2019</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53">
         <v>2019</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54">
         <v>2019</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55">
         <v>2019</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -1979,68 +2003,68 @@
         <v>2019</v>
       </c>
       <c r="D56" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57">
         <v>2019</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58">
         <v>2019</v>
       </c>
       <c r="D58" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59">
         <v>2019</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60">
         <v>2019</v>
       </c>
       <c r="D60" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -2049,12 +2073,12 @@
         <v>2019</v>
       </c>
       <c r="D61" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -2063,12 +2087,12 @@
         <v>2019</v>
       </c>
       <c r="D62" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -2077,12 +2101,12 @@
         <v>2019</v>
       </c>
       <c r="D63" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -2091,82 +2115,82 @@
         <v>2019</v>
       </c>
       <c r="D64" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65">
         <v>2019</v>
       </c>
       <c r="D65" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
       <c r="C69">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -2175,12 +2199,12 @@
         <v>2018</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -2189,12 +2213,12 @@
         <v>2018</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -2203,54 +2227,54 @@
         <v>2018</v>
       </c>
       <c r="D72" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C73">
         <v>2018</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C74">
         <v>2018</v>
       </c>
       <c r="D74" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C75">
         <v>2018</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -2259,54 +2283,54 @@
         <v>2018</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77">
         <v>2018</v>
       </c>
       <c r="D77" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C78">
         <v>2018</v>
       </c>
       <c r="D78" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79">
         <v>2018</v>
       </c>
       <c r="D79" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -2315,68 +2339,68 @@
         <v>2018</v>
       </c>
       <c r="D80" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C81">
         <v>2018</v>
       </c>
       <c r="D81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C82">
         <v>2018</v>
       </c>
       <c r="D82" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C83">
         <v>2018</v>
       </c>
       <c r="D83" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84">
         <v>2018</v>
       </c>
       <c r="D84" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -2385,12 +2409,12 @@
         <v>2018</v>
       </c>
       <c r="D85" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -2399,12 +2423,12 @@
         <v>2018</v>
       </c>
       <c r="D86" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -2413,68 +2437,68 @@
         <v>2018</v>
       </c>
       <c r="D87" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D88" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C89">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D89" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D90" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D91" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -2483,12 +2507,12 @@
         <v>2017</v>
       </c>
       <c r="D92" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -2497,12 +2521,12 @@
         <v>2017</v>
       </c>
       <c r="D93" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -2511,12 +2535,12 @@
         <v>2017</v>
       </c>
       <c r="D94" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -2525,12 +2549,12 @@
         <v>2017</v>
       </c>
       <c r="D95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B96">
         <v>3</v>
@@ -2539,12 +2563,12 @@
         <v>2017</v>
       </c>
       <c r="D96" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -2553,54 +2577,54 @@
         <v>2017</v>
       </c>
       <c r="D97" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C98">
         <v>2017</v>
       </c>
       <c r="D98" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C99">
         <v>2017</v>
       </c>
       <c r="D99" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C100">
         <v>2017</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -2609,54 +2633,54 @@
         <v>2017</v>
       </c>
       <c r="D101" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102">
         <v>2017</v>
       </c>
       <c r="D102" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103">
         <v>2017</v>
       </c>
       <c r="D103" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104">
         <v>2017</v>
       </c>
       <c r="D104" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B105">
         <v>3</v>
@@ -2665,68 +2689,68 @@
         <v>2017</v>
       </c>
       <c r="D105" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C106">
         <v>2017</v>
       </c>
       <c r="D106" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C107">
         <v>2017</v>
       </c>
       <c r="D107" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C108">
         <v>2017</v>
       </c>
       <c r="D108" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C109">
         <v>2017</v>
       </c>
       <c r="D109" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -2735,12 +2759,12 @@
         <v>2017</v>
       </c>
       <c r="D110" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -2749,40 +2773,40 @@
         <v>2017</v>
       </c>
       <c r="D111" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112">
         <v>2017</v>
       </c>
       <c r="D112" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C113">
         <v>2017</v>
       </c>
       <c r="D113" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -2791,68 +2815,68 @@
         <v>2017</v>
       </c>
       <c r="D114" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115">
         <v>2017</v>
       </c>
       <c r="D115" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C116">
         <v>2017</v>
       </c>
       <c r="D116" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C117">
         <v>2017</v>
       </c>
       <c r="D117" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118">
         <v>2017</v>
       </c>
       <c r="D118" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -2861,68 +2885,68 @@
         <v>2017</v>
       </c>
       <c r="D119" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C120">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D120" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C121">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D121" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C122">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D122" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="B123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D123" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B124">
         <v>3</v>
@@ -2931,12 +2955,12 @@
         <v>2016</v>
       </c>
       <c r="D124" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B125">
         <v>3</v>
@@ -2945,12 +2969,12 @@
         <v>2016</v>
       </c>
       <c r="D125" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B126">
         <v>3</v>
@@ -2959,54 +2983,54 @@
         <v>2016</v>
       </c>
       <c r="D126" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C127">
         <v>2016</v>
       </c>
       <c r="D127" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C128">
         <v>2016</v>
       </c>
       <c r="D128" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C129">
         <v>2016</v>
       </c>
       <c r="D129" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B130">
         <v>3</v>
@@ -3015,26 +3039,26 @@
         <v>2016</v>
       </c>
       <c r="D130" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131">
         <v>2016</v>
       </c>
       <c r="D131" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -3043,12 +3067,12 @@
         <v>2016</v>
       </c>
       <c r="D132" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -3057,40 +3081,40 @@
         <v>2016</v>
       </c>
       <c r="D133" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C134">
         <v>2016</v>
       </c>
       <c r="D134" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C135">
         <v>2016</v>
       </c>
       <c r="D135" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -3099,12 +3123,12 @@
         <v>2016</v>
       </c>
       <c r="D136" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -3113,12 +3137,12 @@
         <v>2016</v>
       </c>
       <c r="D137" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -3127,68 +3151,68 @@
         <v>2016</v>
       </c>
       <c r="D138" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139">
         <v>2016</v>
       </c>
       <c r="D139" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C140">
         <v>2016</v>
       </c>
       <c r="D140" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C141">
         <v>2016</v>
       </c>
       <c r="D141" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C142">
         <v>2016</v>
       </c>
       <c r="D142" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -3197,68 +3221,68 @@
         <v>2016</v>
       </c>
       <c r="D143" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C144">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D144" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C145">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D145" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C146">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D146" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C147">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D147" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B148">
         <v>3</v>
@@ -3267,12 +3291,12 @@
         <v>2015</v>
       </c>
       <c r="D148" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B149">
         <v>3</v>
@@ -3281,12 +3305,12 @@
         <v>2015</v>
       </c>
       <c r="D149" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B150">
         <v>3</v>
@@ -3295,12 +3319,12 @@
         <v>2015</v>
       </c>
       <c r="D150" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B151">
         <v>3</v>
@@ -3309,12 +3333,12 @@
         <v>2015</v>
       </c>
       <c r="D151" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B152">
         <v>3</v>
@@ -3323,12 +3347,12 @@
         <v>2015</v>
       </c>
       <c r="D152" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B153">
         <v>3</v>
@@ -3337,12 +3361,12 @@
         <v>2015</v>
       </c>
       <c r="D153" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B154">
         <v>3</v>
@@ -3351,12 +3375,12 @@
         <v>2015</v>
       </c>
       <c r="D154" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B155">
         <v>3</v>
@@ -3365,12 +3389,12 @@
         <v>2015</v>
       </c>
       <c r="D155" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B156">
         <v>3</v>
@@ -3379,12 +3403,12 @@
         <v>2015</v>
       </c>
       <c r="D156" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B157">
         <v>3</v>
@@ -3393,12 +3417,12 @@
         <v>2015</v>
       </c>
       <c r="D157" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="B158">
         <v>3</v>
@@ -3407,12 +3431,12 @@
         <v>2015</v>
       </c>
       <c r="D158" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B159">
         <v>3</v>
@@ -3421,12 +3445,12 @@
         <v>2015</v>
       </c>
       <c r="D159" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="B160">
         <v>3</v>
@@ -3435,12 +3459,12 @@
         <v>2015</v>
       </c>
       <c r="D160" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="B161">
         <v>3</v>
@@ -3449,12 +3473,12 @@
         <v>2015</v>
       </c>
       <c r="D161" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="B162">
         <v>3</v>
@@ -3463,12 +3487,12 @@
         <v>2015</v>
       </c>
       <c r="D162" t="s">
-        <v>189</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B163">
         <v>3</v>
@@ -3477,12 +3501,12 @@
         <v>2015</v>
       </c>
       <c r="D163" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="B164">
         <v>3</v>
@@ -3491,12 +3515,12 @@
         <v>2015</v>
       </c>
       <c r="D164" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B165">
         <v>3</v>
@@ -3505,12 +3529,12 @@
         <v>2015</v>
       </c>
       <c r="D165" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>3</v>
@@ -3519,12 +3543,12 @@
         <v>2015</v>
       </c>
       <c r="D166" t="s">
-        <v>60</v>
+        <v>189</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="B167">
         <v>3</v>
@@ -3533,12 +3557,12 @@
         <v>2015</v>
       </c>
       <c r="D167" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="B168">
         <v>3</v>
@@ -3547,12 +3571,12 @@
         <v>2015</v>
       </c>
       <c r="D168" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="B169">
         <v>3</v>
@@ -3561,12 +3585,12 @@
         <v>2015</v>
       </c>
       <c r="D169" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="B170">
         <v>3</v>
@@ -3575,12 +3599,12 @@
         <v>2015</v>
       </c>
       <c r="D170" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B171">
         <v>3</v>
@@ -3589,12 +3613,12 @@
         <v>2015</v>
       </c>
       <c r="D171" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B172">
         <v>3</v>
@@ -3603,12 +3627,12 @@
         <v>2015</v>
       </c>
       <c r="D172" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B173">
         <v>3</v>
@@ -3617,12 +3641,12 @@
         <v>2015</v>
       </c>
       <c r="D173" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B174">
         <v>3</v>
@@ -3631,12 +3655,12 @@
         <v>2015</v>
       </c>
       <c r="D174" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B175">
         <v>3</v>
@@ -3645,12 +3669,12 @@
         <v>2015</v>
       </c>
       <c r="D175" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B176">
         <v>3</v>
@@ -3659,12 +3683,12 @@
         <v>2015</v>
       </c>
       <c r="D176" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B177">
         <v>3</v>
@@ -3673,12 +3697,12 @@
         <v>2015</v>
       </c>
       <c r="D177" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B178">
         <v>3</v>
@@ -3687,12 +3711,12 @@
         <v>2015</v>
       </c>
       <c r="D178" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B179">
         <v>3</v>
@@ -3701,12 +3725,12 @@
         <v>2015</v>
       </c>
       <c r="D179" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B180">
         <v>3</v>
@@ -3715,12 +3739,12 @@
         <v>2015</v>
       </c>
       <c r="D180" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B181">
         <v>3</v>
@@ -3729,12 +3753,12 @@
         <v>2015</v>
       </c>
       <c r="D181" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B182">
         <v>3</v>
@@ -3743,12 +3767,12 @@
         <v>2015</v>
       </c>
       <c r="D182" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B183">
         <v>3</v>
@@ -3757,12 +3781,12 @@
         <v>2015</v>
       </c>
       <c r="D183" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B184">
         <v>3</v>
@@ -3771,12 +3795,12 @@
         <v>2015</v>
       </c>
       <c r="D184" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B185">
         <v>3</v>
@@ -3785,12 +3809,12 @@
         <v>2015</v>
       </c>
       <c r="D185" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B186">
         <v>3</v>
@@ -3799,12 +3823,12 @@
         <v>2015</v>
       </c>
       <c r="D186" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B187">
         <v>3</v>
@@ -3813,12 +3837,12 @@
         <v>2015</v>
       </c>
       <c r="D187" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B188">
         <v>3</v>
@@ -3827,12 +3851,12 @@
         <v>2015</v>
       </c>
       <c r="D188" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B189">
         <v>3</v>
@@ -3841,12 +3865,12 @@
         <v>2015</v>
       </c>
       <c r="D189" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B190">
         <v>3</v>
@@ -3855,12 +3879,12 @@
         <v>2015</v>
       </c>
       <c r="D190" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B191">
         <v>3</v>
@@ -3869,12 +3893,12 @@
         <v>2015</v>
       </c>
       <c r="D191" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B192">
         <v>3</v>
@@ -3883,12 +3907,12 @@
         <v>2015</v>
       </c>
       <c r="D192" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -3897,12 +3921,12 @@
         <v>2015</v>
       </c>
       <c r="D193" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B194">
         <v>3</v>
@@ -3911,12 +3935,12 @@
         <v>2015</v>
       </c>
       <c r="D194" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B195">
         <v>3</v>
@@ -3925,12 +3949,12 @@
         <v>2015</v>
       </c>
       <c r="D195" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B196">
         <v>3</v>
@@ -3939,12 +3963,12 @@
         <v>2015</v>
       </c>
       <c r="D196" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B197">
         <v>3</v>
@@ -3953,12 +3977,12 @@
         <v>2015</v>
       </c>
       <c r="D197" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B198">
         <v>3</v>
@@ -3967,12 +3991,12 @@
         <v>2015</v>
       </c>
       <c r="D198" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B199">
         <v>3</v>
@@ -3981,12 +4005,12 @@
         <v>2015</v>
       </c>
       <c r="D199" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B200">
         <v>3</v>
@@ -3995,12 +4019,12 @@
         <v>2015</v>
       </c>
       <c r="D200" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B201">
         <v>3</v>
@@ -4009,12 +4033,12 @@
         <v>2015</v>
       </c>
       <c r="D201" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B202">
         <v>3</v>
@@ -4023,12 +4047,12 @@
         <v>2015</v>
       </c>
       <c r="D202" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B203">
         <v>3</v>
@@ -4037,12 +4061,12 @@
         <v>2015</v>
       </c>
       <c r="D203" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B204">
         <v>3</v>
@@ -4051,12 +4075,12 @@
         <v>2015</v>
       </c>
       <c r="D204" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="B205">
         <v>3</v>
@@ -4065,12 +4089,12 @@
         <v>2015</v>
       </c>
       <c r="D205" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B206">
         <v>3</v>
@@ -4079,12 +4103,12 @@
         <v>2015</v>
       </c>
       <c r="D206" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="B207">
         <v>3</v>
@@ -4093,12 +4117,12 @@
         <v>2015</v>
       </c>
       <c r="D207" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B208">
         <v>3</v>
@@ -4107,12 +4131,12 @@
         <v>2015</v>
       </c>
       <c r="D208" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="B209">
         <v>3</v>
@@ -4121,12 +4145,12 @@
         <v>2015</v>
       </c>
       <c r="D209" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B210">
         <v>3</v>
@@ -4135,12 +4159,12 @@
         <v>2015</v>
       </c>
       <c r="D210" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="B211">
         <v>3</v>
@@ -4149,12 +4173,12 @@
         <v>2015</v>
       </c>
       <c r="D211" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B212">
         <v>3</v>
@@ -4163,12 +4187,12 @@
         <v>2015</v>
       </c>
       <c r="D212" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B213">
         <v>3</v>
@@ -4177,12 +4201,12 @@
         <v>2015</v>
       </c>
       <c r="D213" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B214">
         <v>3</v>
@@ -4191,12 +4215,12 @@
         <v>2015</v>
       </c>
       <c r="D214" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B215">
         <v>3</v>
@@ -4205,12 +4229,12 @@
         <v>2015</v>
       </c>
       <c r="D215" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B216">
         <v>3</v>
@@ -4219,12 +4243,12 @@
         <v>2015</v>
       </c>
       <c r="D216" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B217">
         <v>3</v>
@@ -4233,12 +4257,12 @@
         <v>2015</v>
       </c>
       <c r="D217" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B218">
         <v>3</v>
@@ -4247,40 +4271,40 @@
         <v>2015</v>
       </c>
       <c r="D218" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="B219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C219">
         <v>2015</v>
       </c>
       <c r="D219" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C220">
         <v>2015</v>
       </c>
       <c r="D220" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B221">
         <v>3</v>
@@ -4289,40 +4313,40 @@
         <v>2015</v>
       </c>
       <c r="D221" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C222">
         <v>2015</v>
       </c>
       <c r="D222" t="s">
-        <v>47</v>
+        <v>184</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="B223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C223">
         <v>2015</v>
       </c>
       <c r="D223" t="s">
-        <v>201</v>
+        <v>26</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="B224">
         <v>2</v>
@@ -4331,12 +4355,12 @@
         <v>2015</v>
       </c>
       <c r="D224" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B225">
         <v>3</v>
@@ -4345,26 +4369,26 @@
         <v>2015</v>
       </c>
       <c r="D225" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C226">
         <v>2015</v>
       </c>
       <c r="D226" t="s">
-        <v>206</v>
+        <v>47</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B227">
         <v>3</v>
@@ -4373,82 +4397,82 @@
         <v>2015</v>
       </c>
       <c r="D227" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="B228">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C228">
         <v>2015</v>
       </c>
       <c r="D228" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C229">
         <v>2015</v>
       </c>
       <c r="D229" t="s">
-        <v>41</v>
+        <v>205</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C230">
         <v>2015</v>
       </c>
       <c r="D230" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C231">
         <v>2015</v>
       </c>
       <c r="D231" t="s">
-        <v>43</v>
+        <v>207</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="B232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C232">
         <v>2015</v>
       </c>
       <c r="D232" t="s">
-        <v>50</v>
+        <v>187</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B233">
         <v>2</v>
@@ -4457,12 +4481,12 @@
         <v>2015</v>
       </c>
       <c r="D233" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B234">
         <v>2</v>
@@ -4471,12 +4495,12 @@
         <v>2015</v>
       </c>
       <c r="D234" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -4485,68 +4509,68 @@
         <v>2015</v>
       </c>
       <c r="D235" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C236">
         <v>2015</v>
       </c>
       <c r="D236" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C237">
         <v>2015</v>
       </c>
       <c r="D237" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C238">
         <v>2015</v>
       </c>
       <c r="D238" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C239">
         <v>2015</v>
       </c>
       <c r="D239" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -4555,68 +4579,68 @@
         <v>2015</v>
       </c>
       <c r="D240" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B241">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C241">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D241" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C242">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D242" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C243">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D243" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C244">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D244" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B245">
         <v>3</v>
@@ -4625,12 +4649,12 @@
         <v>2014</v>
       </c>
       <c r="D245" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B246">
         <v>3</v>
@@ -4639,12 +4663,12 @@
         <v>2014</v>
       </c>
       <c r="D246" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B247">
         <v>3</v>
@@ -4653,12 +4677,12 @@
         <v>2014</v>
       </c>
       <c r="D247" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B248">
         <v>3</v>
@@ -4667,12 +4691,12 @@
         <v>2014</v>
       </c>
       <c r="D248" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B249">
         <v>3</v>
@@ -4681,12 +4705,12 @@
         <v>2014</v>
       </c>
       <c r="D249" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B250">
         <v>3</v>
@@ -4695,12 +4719,12 @@
         <v>2014</v>
       </c>
       <c r="D250" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B251">
         <v>3</v>
@@ -4709,12 +4733,12 @@
         <v>2014</v>
       </c>
       <c r="D251" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B252">
         <v>3</v>
@@ -4723,12 +4747,12 @@
         <v>2014</v>
       </c>
       <c r="D252" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B253">
         <v>3</v>
@@ -4737,12 +4761,12 @@
         <v>2014</v>
       </c>
       <c r="D253" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="B254">
         <v>3</v>
@@ -4751,12 +4775,12 @@
         <v>2014</v>
       </c>
       <c r="D254" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B255">
         <v>3</v>
@@ -4765,12 +4789,12 @@
         <v>2014</v>
       </c>
       <c r="D255" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="B256">
         <v>3</v>
@@ -4779,12 +4803,12 @@
         <v>2014</v>
       </c>
       <c r="D256" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -4793,12 +4817,12 @@
         <v>2014</v>
       </c>
       <c r="D257" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>188</v>
+        <v>3</v>
       </c>
       <c r="B258">
         <v>3</v>
@@ -4807,12 +4831,12 @@
         <v>2014</v>
       </c>
       <c r="D258" t="s">
-        <v>189</v>
+        <v>20</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B259">
         <v>3</v>
@@ -4821,12 +4845,12 @@
         <v>2014</v>
       </c>
       <c r="D259" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="B260">
         <v>3</v>
@@ -4835,12 +4859,12 @@
         <v>2014</v>
       </c>
       <c r="D260" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B261">
         <v>3</v>
@@ -4849,12 +4873,12 @@
         <v>2014</v>
       </c>
       <c r="D261" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="B262">
         <v>3</v>
@@ -4863,12 +4887,12 @@
         <v>2014</v>
       </c>
       <c r="D262" t="s">
-        <v>60</v>
+        <v>189</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="B263">
         <v>3</v>
@@ -4877,12 +4901,12 @@
         <v>2014</v>
       </c>
       <c r="D263" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="B264">
         <v>3</v>
@@ -4891,12 +4915,12 @@
         <v>2014</v>
       </c>
       <c r="D264" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="B265">
         <v>3</v>
@@ -4905,12 +4929,12 @@
         <v>2014</v>
       </c>
       <c r="D265" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="B266">
         <v>3</v>
@@ -4919,12 +4943,12 @@
         <v>2014</v>
       </c>
       <c r="D266" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B267">
         <v>3</v>
@@ -4933,12 +4957,12 @@
         <v>2014</v>
       </c>
       <c r="D267" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B268">
         <v>3</v>
@@ -4947,12 +4971,12 @@
         <v>2014</v>
       </c>
       <c r="D268" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B269">
         <v>3</v>
@@ -4961,12 +4985,12 @@
         <v>2014</v>
       </c>
       <c r="D269" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B270">
         <v>3</v>
@@ -4975,12 +4999,12 @@
         <v>2014</v>
       </c>
       <c r="D270" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B271">
         <v>3</v>
@@ -4989,12 +5013,12 @@
         <v>2014</v>
       </c>
       <c r="D271" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B272">
         <v>3</v>
@@ -5003,12 +5027,12 @@
         <v>2014</v>
       </c>
       <c r="D272" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B273">
         <v>3</v>
@@ -5017,12 +5041,12 @@
         <v>2014</v>
       </c>
       <c r="D273" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B274">
         <v>3</v>
@@ -5031,12 +5055,12 @@
         <v>2014</v>
       </c>
       <c r="D274" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B275">
         <v>3</v>
@@ -5045,12 +5069,12 @@
         <v>2014</v>
       </c>
       <c r="D275" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B276">
         <v>3</v>
@@ -5059,12 +5083,12 @@
         <v>2014</v>
       </c>
       <c r="D276" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B277">
         <v>3</v>
@@ -5073,12 +5097,12 @@
         <v>2014</v>
       </c>
       <c r="D277" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B278">
         <v>3</v>
@@ -5087,12 +5111,12 @@
         <v>2014</v>
       </c>
       <c r="D278" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B279">
         <v>3</v>
@@ -5101,12 +5125,12 @@
         <v>2014</v>
       </c>
       <c r="D279" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B280">
         <v>3</v>
@@ -5115,12 +5139,12 @@
         <v>2014</v>
       </c>
       <c r="D280" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B281">
         <v>3</v>
@@ -5129,12 +5153,12 @@
         <v>2014</v>
       </c>
       <c r="D281" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B282">
         <v>3</v>
@@ -5143,12 +5167,12 @@
         <v>2014</v>
       </c>
       <c r="D282" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B283">
         <v>3</v>
@@ -5157,12 +5181,12 @@
         <v>2014</v>
       </c>
       <c r="D283" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B284">
         <v>3</v>
@@ -5171,12 +5195,12 @@
         <v>2014</v>
       </c>
       <c r="D284" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B285">
         <v>3</v>
@@ -5185,12 +5209,12 @@
         <v>2014</v>
       </c>
       <c r="D285" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B286">
         <v>3</v>
@@ -5199,12 +5223,12 @@
         <v>2014</v>
       </c>
       <c r="D286" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B287">
         <v>3</v>
@@ -5213,12 +5237,12 @@
         <v>2014</v>
       </c>
       <c r="D287" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B288">
         <v>3</v>
@@ -5227,12 +5251,12 @@
         <v>2014</v>
       </c>
       <c r="D288" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B289">
         <v>3</v>
@@ -5241,12 +5265,12 @@
         <v>2014</v>
       </c>
       <c r="D289" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B290">
         <v>3</v>
@@ -5255,12 +5279,12 @@
         <v>2014</v>
       </c>
       <c r="D290" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B291">
         <v>3</v>
@@ -5269,12 +5293,12 @@
         <v>2014</v>
       </c>
       <c r="D291" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B292">
         <v>3</v>
@@ -5283,12 +5307,12 @@
         <v>2014</v>
       </c>
       <c r="D292" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B293">
         <v>3</v>
@@ -5297,12 +5321,12 @@
         <v>2014</v>
       </c>
       <c r="D293" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="B294">
         <v>3</v>
@@ -5311,12 +5335,12 @@
         <v>2014</v>
       </c>
       <c r="D294" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="B295">
         <v>3</v>
@@ -5325,12 +5349,12 @@
         <v>2014</v>
       </c>
       <c r="D295" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="B296">
         <v>3</v>
@@ -5339,12 +5363,12 @@
         <v>2014</v>
       </c>
       <c r="D296" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B297">
         <v>3</v>
@@ -5353,12 +5377,12 @@
         <v>2014</v>
       </c>
       <c r="D297" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="B298">
         <v>3</v>
@@ -5367,12 +5391,12 @@
         <v>2014</v>
       </c>
       <c r="D298" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B299">
         <v>3</v>
@@ -5381,12 +5405,12 @@
         <v>2014</v>
       </c>
       <c r="D299" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="B300">
         <v>3</v>
@@ -5395,12 +5419,12 @@
         <v>2014</v>
       </c>
       <c r="D300" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B301">
         <v>3</v>
@@ -5409,12 +5433,12 @@
         <v>2014</v>
       </c>
       <c r="D301" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="B302">
         <v>3</v>
@@ -5423,12 +5447,12 @@
         <v>2014</v>
       </c>
       <c r="D302" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="B303">
         <v>3</v>
@@ -5437,12 +5461,12 @@
         <v>2014</v>
       </c>
       <c r="D303" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="B304">
         <v>3</v>
@@ -5451,12 +5475,12 @@
         <v>2014</v>
       </c>
       <c r="D304" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="B305">
         <v>3</v>
@@ -5465,12 +5489,12 @@
         <v>2014</v>
       </c>
       <c r="D305" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B306">
         <v>3</v>
@@ -5479,12 +5503,12 @@
         <v>2014</v>
       </c>
       <c r="D306" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="B307">
         <v>3</v>
@@ -5493,26 +5517,26 @@
         <v>2014</v>
       </c>
       <c r="D307" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="B308">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C308">
         <v>2014</v>
       </c>
       <c r="D308" t="s">
-        <v>26</v>
+        <v>213</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B309">
         <v>3</v>
@@ -5521,26 +5545,26 @@
         <v>2014</v>
       </c>
       <c r="D309" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="B310">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C310">
         <v>2014</v>
       </c>
       <c r="D310" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B311">
         <v>3</v>
@@ -5549,12 +5573,12 @@
         <v>2014</v>
       </c>
       <c r="D311" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B312">
         <v>2</v>
@@ -5563,12 +5587,12 @@
         <v>2014</v>
       </c>
       <c r="D312" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="B313">
         <v>3</v>
@@ -5577,12 +5601,12 @@
         <v>2014</v>
       </c>
       <c r="D313" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="B314">
         <v>2</v>
@@ -5591,12 +5615,12 @@
         <v>2014</v>
       </c>
       <c r="D314" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="B315">
         <v>3</v>
@@ -5605,40 +5629,40 @@
         <v>2014</v>
       </c>
       <c r="D315" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
-        <v>221</v>
+        <v>46</v>
       </c>
       <c r="B316">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C316">
         <v>2014</v>
       </c>
-      <c r="D316" s="3" t="s">
-        <v>223</v>
+      <c r="D316" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="B317">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C317">
         <v>2014</v>
       </c>
       <c r="D317" t="s">
-        <v>41</v>
+        <v>201</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B318">
         <v>2</v>
@@ -5647,40 +5671,40 @@
         <v>2014</v>
       </c>
       <c r="D318" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="B319">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C319">
         <v>2014</v>
       </c>
       <c r="D319" t="s">
-        <v>43</v>
+        <v>222</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="B320">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C320">
         <v>2014</v>
       </c>
-      <c r="D320" t="s">
-        <v>50</v>
+      <c r="D320" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B321">
         <v>2</v>
@@ -5689,12 +5713,12 @@
         <v>2014</v>
       </c>
       <c r="D321" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B322">
         <v>2</v>
@@ -5703,12 +5727,12 @@
         <v>2014</v>
       </c>
       <c r="D322" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B323">
         <v>2</v>
@@ -5717,68 +5741,68 @@
         <v>2014</v>
       </c>
       <c r="D323" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C324">
         <v>2014</v>
       </c>
       <c r="D324" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C325">
         <v>2014</v>
       </c>
       <c r="D325" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C326">
         <v>2014</v>
       </c>
       <c r="D326" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B327">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C327">
         <v>2014</v>
       </c>
       <c r="D327" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -5787,6 +5811,62 @@
         <v>2014</v>
       </c>
       <c r="D328" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A329" t="s">
+        <v>64</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>2014</v>
+      </c>
+      <c r="D329" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A330" t="s">
+        <v>67</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>2014</v>
+      </c>
+      <c r="D330" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A331" t="s">
+        <v>69</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <v>2014</v>
+      </c>
+      <c r="D331" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A332" t="s">
+        <v>71</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>2014</v>
+      </c>
+      <c r="D332" t="s">
         <v>72</v>
       </c>
     </row>

--- a/edited/elective_list/gsc.xlsx
+++ b/edited/elective_list/gsc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GIST_Credit_Analysis_Program\edited\elective_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1E019A-0D1C-4AA4-B9CA-54FEFBABF14A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84875CCD-2D79-448C-BDCA-80E9A8E0AE6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2976" windowWidth="11460" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="492" yWindow="3612" windowWidth="11460" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="228">
   <si>
     <t>교과목</t>
   </si>
@@ -758,27 +758,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GS2794</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GS2795</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대사회사상의 흐름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문명으로 보는 21세기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GS2823</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>수학의 위대한 순간들 - AI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS3066</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1214,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D332"/>
+  <dimension ref="A1:D330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="D331" sqref="D331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1238,2051 +1226,2051 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D11" t="s">
-        <v>224</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D33" t="s">
-        <v>224</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D42" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
       <c r="C50">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
       <c r="C51">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D51" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
       <c r="C56">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
       <c r="C57">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
       <c r="C59">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D59" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D61" t="s">
-        <v>33</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D62" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D63" t="s">
-        <v>42</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D64" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D65" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D66" t="s">
-        <v>35</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D67" t="s">
-        <v>36</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D68" t="s">
-        <v>49</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D69" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
       <c r="C70">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
       <c r="B72">
         <v>3</v>
       </c>
       <c r="C72">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D73" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
       <c r="C74">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C75">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
       <c r="C76">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D76" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C77">
-        <v>2018</v>
-      </c>
-      <c r="D77" t="s">
-        <v>26</v>
+        <v>2014</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B78">
         <v>2</v>
       </c>
       <c r="C78">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D78" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B79">
         <v>2</v>
       </c>
       <c r="C79">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D79" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D80" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D82" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D83" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D84" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D85" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D86" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D87" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D88" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D89" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D90" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D91" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="B92">
         <v>3</v>
       </c>
       <c r="C92">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D92" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
       <c r="C93">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D93" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B94">
         <v>3</v>
       </c>
       <c r="C94">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D94" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B95">
         <v>3</v>
       </c>
       <c r="C95">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D95" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B96">
         <v>3</v>
       </c>
       <c r="C96">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D96" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B97">
         <v>3</v>
       </c>
       <c r="C97">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D97" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="B98">
         <v>3</v>
       </c>
       <c r="C98">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D98" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B99">
         <v>3</v>
       </c>
       <c r="C99">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D99" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="B100">
         <v>3</v>
       </c>
       <c r="C100">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B101">
         <v>3</v>
       </c>
       <c r="C101">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D101" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C102">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D102" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C103">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D103" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C104">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D104" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B105">
         <v>3</v>
       </c>
       <c r="C105">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B106">
         <v>3</v>
       </c>
       <c r="C106">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D106" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B107">
         <v>3</v>
       </c>
       <c r="C107">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D107" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="B108">
         <v>3</v>
       </c>
       <c r="C108">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D108" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B109">
         <v>3</v>
       </c>
       <c r="C109">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D109" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C110">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D110" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C111">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D111" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C112">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D112" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C113">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D113" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C114">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D114" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D115" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B116">
         <v>3</v>
       </c>
       <c r="C116">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D116" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="B117">
         <v>3</v>
       </c>
       <c r="C117">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D117" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C118">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D118" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C119">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D119" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C120">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D120" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C121">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D121" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C122">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D122" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C123">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D123" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B124">
         <v>3</v>
       </c>
       <c r="C124">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D124" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="B125">
         <v>3</v>
       </c>
       <c r="C125">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D125" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="B126">
         <v>3</v>
       </c>
       <c r="C126">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D126" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="B127">
         <v>3</v>
       </c>
       <c r="C127">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D127" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="B128">
         <v>3</v>
       </c>
       <c r="C128">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D128" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="B129">
         <v>3</v>
       </c>
       <c r="C129">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D129" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="B130">
         <v>3</v>
       </c>
       <c r="C130">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D130" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C131">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D131" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C132">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D132" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C133">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D133" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>3</v>
       </c>
       <c r="C134">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D134" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="B135">
         <v>3</v>
       </c>
       <c r="C135">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D135" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C136">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D136" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C137">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D137" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C138">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D138" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D139" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C140">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D140" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C141">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D141" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C142">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D142" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C143">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D143" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C144">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D144" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C145">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D145" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C146">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D146" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C147">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D147" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="B148">
         <v>3</v>
@@ -3291,12 +3279,12 @@
         <v>2015</v>
       </c>
       <c r="D148" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="B149">
         <v>3</v>
@@ -3305,12 +3293,12 @@
         <v>2015</v>
       </c>
       <c r="D149" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="B150">
         <v>3</v>
@@ -3319,12 +3307,12 @@
         <v>2015</v>
       </c>
       <c r="D150" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="B151">
         <v>3</v>
@@ -3333,12 +3321,12 @@
         <v>2015</v>
       </c>
       <c r="D151" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="B152">
         <v>3</v>
@@ -3347,12 +3335,12 @@
         <v>2015</v>
       </c>
       <c r="D152" t="s">
-        <v>79</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="B153">
         <v>3</v>
@@ -3361,12 +3349,12 @@
         <v>2015</v>
       </c>
       <c r="D153" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="B154">
         <v>3</v>
@@ -3375,12 +3363,12 @@
         <v>2015</v>
       </c>
       <c r="D154" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="B155">
         <v>3</v>
@@ -3389,12 +3377,12 @@
         <v>2015</v>
       </c>
       <c r="D155" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="B156">
         <v>3</v>
@@ -3403,12 +3391,12 @@
         <v>2015</v>
       </c>
       <c r="D156" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="B157">
         <v>3</v>
@@ -3417,12 +3405,12 @@
         <v>2015</v>
       </c>
       <c r="D157" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="B158">
         <v>3</v>
@@ -3431,12 +3419,12 @@
         <v>2015</v>
       </c>
       <c r="D158" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="B159">
         <v>3</v>
@@ -3445,12 +3433,12 @@
         <v>2015</v>
       </c>
       <c r="D159" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="B160">
         <v>3</v>
@@ -3459,12 +3447,12 @@
         <v>2015</v>
       </c>
       <c r="D160" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="B161">
         <v>3</v>
@@ -3473,12 +3461,12 @@
         <v>2015</v>
       </c>
       <c r="D161" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="B162">
         <v>3</v>
@@ -3487,12 +3475,12 @@
         <v>2015</v>
       </c>
       <c r="D162" t="s">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="B163">
         <v>3</v>
@@ -3501,12 +3489,12 @@
         <v>2015</v>
       </c>
       <c r="D163" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>5</v>
+        <v>183</v>
       </c>
       <c r="B164">
         <v>3</v>
@@ -3515,40 +3503,40 @@
         <v>2015</v>
       </c>
       <c r="D164" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B165">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C165">
         <v>2015</v>
       </c>
       <c r="D165" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166">
         <v>2015</v>
       </c>
       <c r="D166" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="B167">
         <v>3</v>
@@ -3557,26 +3545,26 @@
         <v>2015</v>
       </c>
       <c r="D167" t="s">
-        <v>55</v>
+        <v>199</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C168">
         <v>2015</v>
       </c>
       <c r="D168" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="B169">
         <v>3</v>
@@ -3585,26 +3573,26 @@
         <v>2015</v>
       </c>
       <c r="D169" t="s">
-        <v>63</v>
+        <v>201</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B170">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C170">
         <v>2015</v>
       </c>
       <c r="D170" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>98</v>
+        <v>202</v>
       </c>
       <c r="B171">
         <v>3</v>
@@ -3613,12 +3601,12 @@
         <v>2015</v>
       </c>
       <c r="D171" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="B172">
         <v>3</v>
@@ -3627,12 +3615,12 @@
         <v>2015</v>
       </c>
       <c r="D172" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="B173">
         <v>3</v>
@@ -3641,12 +3629,12 @@
         <v>2015</v>
       </c>
       <c r="D173" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="B174">
         <v>3</v>
@@ -3655,2219 +3643,2191 @@
         <v>2015</v>
       </c>
       <c r="D174" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="B175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C175">
         <v>2015</v>
       </c>
       <c r="D175" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="B176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C176">
         <v>2015</v>
       </c>
       <c r="D176" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="B177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C177">
         <v>2015</v>
       </c>
       <c r="D177" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="B178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C178">
         <v>2015</v>
       </c>
       <c r="D178" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="B179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C179">
         <v>2015</v>
       </c>
       <c r="D179" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="B180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C180">
         <v>2015</v>
       </c>
       <c r="D180" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="B181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C181">
         <v>2015</v>
       </c>
       <c r="D181" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C182">
         <v>2015</v>
       </c>
       <c r="D182" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="B183">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C183">
         <v>2015</v>
       </c>
       <c r="D183" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="B184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C184">
         <v>2015</v>
       </c>
       <c r="D184" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="B185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C185">
         <v>2015</v>
       </c>
       <c r="D185" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="B186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C186">
         <v>2015</v>
       </c>
       <c r="D186" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="B187">
         <v>3</v>
       </c>
       <c r="C187">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D187" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="B188">
         <v>3</v>
       </c>
       <c r="C188">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D188" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="B189">
         <v>3</v>
       </c>
       <c r="C189">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D189" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="B190">
         <v>3</v>
       </c>
       <c r="C190">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D190" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="B191">
         <v>3</v>
       </c>
       <c r="C191">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D191" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="B192">
         <v>3</v>
       </c>
       <c r="C192">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D192" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="B193">
         <v>3</v>
       </c>
       <c r="C193">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D193" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="B194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C194">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D194" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="B195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C195">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D195" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>136</v>
+        <v>9</v>
       </c>
       <c r="B196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C196">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D196" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="B197">
         <v>3</v>
       </c>
       <c r="C197">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D197" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="B198">
         <v>3</v>
       </c>
       <c r="C198">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D198" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="B199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C199">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D199" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="B200">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C200">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D200" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="B201">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C201">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D201" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C202">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D202" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C203">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D203" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C204">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D204" t="s">
-        <v>155</v>
+        <v>36</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="B205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C205">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D205" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="B206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C206">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D206" t="s">
-        <v>158</v>
+        <v>65</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="B207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C207">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D207" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="B208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C208">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D208" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>190</v>
+        <v>69</v>
       </c>
       <c r="B209">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C209">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D209" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="B210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C210">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="D210" t="s">
-        <v>194</v>
+        <v>72</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>192</v>
+        <v>3</v>
       </c>
       <c r="B211">
         <v>3</v>
       </c>
       <c r="C211">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D211" t="s">
-        <v>195</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="B212">
         <v>3</v>
       </c>
       <c r="C212">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D212" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="B213">
         <v>3</v>
       </c>
       <c r="C213">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D213" t="s">
-        <v>166</v>
+        <v>22</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>167</v>
+        <v>5</v>
       </c>
       <c r="B214">
         <v>3</v>
       </c>
       <c r="C214">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D214" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="B215">
         <v>3</v>
       </c>
       <c r="C215">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D215" t="s">
-        <v>170</v>
+        <v>53</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>171</v>
+        <v>54</v>
       </c>
       <c r="B216">
         <v>3</v>
       </c>
       <c r="C216">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D216" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c r="B217">
         <v>3</v>
       </c>
       <c r="C217">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D217" t="s">
-        <v>174</v>
+        <v>57</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="B218">
         <v>3</v>
       </c>
       <c r="C218">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D218" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="B219">
         <v>3</v>
       </c>
       <c r="C219">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D219" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="B220">
         <v>3</v>
       </c>
       <c r="C220">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D220" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="B221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C221">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D221" t="s">
-        <v>182</v>
+        <v>26</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>183</v>
+        <v>46</v>
       </c>
       <c r="B222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C222">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D222" t="s">
-        <v>184</v>
+        <v>47</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B223">
         <v>2</v>
       </c>
       <c r="C223">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D223" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C224">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D224" t="s">
-        <v>198</v>
+        <v>28</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="B225">
         <v>3</v>
       </c>
       <c r="C225">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D225" t="s">
-        <v>199</v>
+        <v>29</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C226">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D226" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
-        <v>200</v>
+        <v>13</v>
       </c>
       <c r="B227">
         <v>3</v>
       </c>
       <c r="C227">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D227" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C228">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D228" t="s">
-        <v>204</v>
+        <v>32</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>202</v>
+        <v>38</v>
       </c>
       <c r="B229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C229">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D229" t="s">
-        <v>205</v>
+        <v>41</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C230">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D230" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="B231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C231">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D231" t="s">
-        <v>207</v>
+        <v>43</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C232">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D232" t="s">
-        <v>187</v>
+        <v>50</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B233">
         <v>2</v>
       </c>
       <c r="C233">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D233" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B234">
         <v>2</v>
       </c>
       <c r="C234">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D234" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C235">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D235" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C236">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D236" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B237">
         <v>2</v>
       </c>
       <c r="C237">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D237" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C238">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D238" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C239">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D239" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B240">
         <v>1</v>
       </c>
       <c r="C240">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D240" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B241">
         <v>1</v>
       </c>
       <c r="C241">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D241" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B242">
         <v>1</v>
       </c>
       <c r="C242">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D242" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C243">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D243" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C244">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D244" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="B245">
         <v>3</v>
       </c>
       <c r="C245">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D245" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="B246">
         <v>3</v>
       </c>
       <c r="C246">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D246" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="B247">
         <v>3</v>
       </c>
       <c r="C247">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D247" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="B248">
         <v>3</v>
       </c>
       <c r="C248">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D248" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B249">
         <v>3</v>
       </c>
       <c r="C249">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D249" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B250">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C250">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D250" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B251">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C251">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D251" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="B252">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C252">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D252" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B253">
         <v>3</v>
       </c>
       <c r="C253">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D253" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="B254">
         <v>3</v>
       </c>
       <c r="C254">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D254" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="B255">
         <v>3</v>
       </c>
       <c r="C255">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D255" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="B256">
         <v>3</v>
       </c>
       <c r="C256">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D256" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="B257">
         <v>3</v>
       </c>
       <c r="C257">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D257" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B258">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C258">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D258" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B259">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C259">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D259" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B260">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C260">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D260" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B261">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C261">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D261" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="B262">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C262">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D262" t="s">
-        <v>189</v>
+        <v>50</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B263">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C263">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D263" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B264">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C264">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D264" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="B265">
         <v>3</v>
       </c>
       <c r="C265">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D265" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B266">
         <v>3</v>
       </c>
       <c r="C266">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D266" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="B267">
         <v>3</v>
       </c>
       <c r="C267">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D267" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="B268">
         <v>3</v>
       </c>
       <c r="C268">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D268" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="B269">
         <v>3</v>
       </c>
       <c r="C269">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D269" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="B270">
         <v>3</v>
       </c>
       <c r="C270">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D270" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="B271">
         <v>3</v>
       </c>
       <c r="C271">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D271" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="B272">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C272">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D272" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="B273">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C273">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D273" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="B274">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C274">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D274" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="B275">
         <v>3</v>
       </c>
       <c r="C275">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D275" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="B276">
         <v>3</v>
       </c>
       <c r="C276">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D276" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="B277">
         <v>3</v>
       </c>
       <c r="C277">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D277" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="B278">
         <v>3</v>
       </c>
       <c r="C278">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D278" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="B279">
         <v>3</v>
       </c>
       <c r="C279">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D279" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="B280">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C280">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D280" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="B281">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C281">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D281" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="B282">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C282">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D282" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="B283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C283">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D283" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="B284">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C284">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D284" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="B285">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C285">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D285" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="B286">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C286">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D286" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="B287">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C287">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D287" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="B288">
         <v>3</v>
       </c>
       <c r="C288">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="D288" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="B289">
         <v>3</v>
       </c>
       <c r="C289">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D289" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="B290">
         <v>3</v>
       </c>
       <c r="C290">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D290" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="B291">
         <v>3</v>
       </c>
       <c r="C291">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D291" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="B292">
         <v>3</v>
       </c>
       <c r="C292">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D292" t="s">
-        <v>143</v>
+        <v>23</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="B293">
         <v>3</v>
       </c>
       <c r="C293">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D293" t="s">
-        <v>149</v>
+        <v>24</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
-        <v>150</v>
+        <v>7</v>
       </c>
       <c r="B294">
         <v>3</v>
       </c>
       <c r="C294">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D294" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
-        <v>154</v>
+        <v>8</v>
       </c>
       <c r="B295">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C295">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D295" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="B296">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C296">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D296" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="B297">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C297">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D297" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="B298">
         <v>3</v>
       </c>
       <c r="C298">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D298" t="s">
-        <v>193</v>
+        <v>28</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="B299">
         <v>3</v>
       </c>
       <c r="C299">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D299" t="s">
-        <v>194</v>
+        <v>29</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="B300">
         <v>3</v>
       </c>
       <c r="C300">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D300" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="B301">
         <v>3</v>
       </c>
       <c r="C301">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D301" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="B302">
         <v>3</v>
       </c>
       <c r="C302">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D302" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="B303">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C303">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D303" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>169</v>
+        <v>16</v>
       </c>
       <c r="B304">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C304">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D304" t="s">
-        <v>170</v>
+        <v>34</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="B305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C305">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D305" t="s">
-        <v>172</v>
+        <v>50</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="B306">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C306">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D306" t="s">
-        <v>211</v>
+        <v>35</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="B307">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C307">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D307" t="s">
-        <v>212</v>
+        <v>36</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="B308">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C308">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D308" t="s">
-        <v>213</v>
+        <v>49</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="B309">
         <v>3</v>
       </c>
       <c r="C309">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D309" t="s">
-        <v>216</v>
+        <v>37</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
-        <v>215</v>
+        <v>3</v>
       </c>
       <c r="B310">
         <v>3</v>
       </c>
       <c r="C310">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D310" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="B311">
         <v>3</v>
       </c>
       <c r="C311">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D311" t="s">
-        <v>184</v>
+        <v>21</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B312">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C312">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D312" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
-        <v>218</v>
+        <v>5</v>
       </c>
       <c r="B313">
         <v>3</v>
       </c>
       <c r="C313">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D313" t="s">
-        <v>219</v>
+        <v>23</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
-        <v>196</v>
+        <v>6</v>
       </c>
       <c r="B314">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C314">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D314" t="s">
-        <v>198</v>
+        <v>24</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="B315">
         <v>3</v>
       </c>
       <c r="C315">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D315" t="s">
-        <v>199</v>
+        <v>25</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B316">
         <v>2</v>
       </c>
       <c r="C316">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D316" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
-        <v>200</v>
+        <v>9</v>
       </c>
       <c r="B317">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C317">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D317" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B318">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C318">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D318" t="s">
-        <v>204</v>
+        <v>28</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
       <c r="B319">
         <v>3</v>
       </c>
       <c r="C319">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D319" t="s">
-        <v>222</v>
+        <v>29</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="B320">
         <v>3</v>
       </c>
       <c r="C320">
-        <v>2014</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>223</v>
+        <v>2021</v>
+      </c>
+      <c r="D320" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B321">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C321">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D321" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C322">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D322" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B323">
         <v>2</v>
       </c>
       <c r="C323">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D323" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B324">
         <v>2</v>
       </c>
       <c r="C324">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D324" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="B325">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C325">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D325" t="s">
-        <v>35</v>
+        <v>226</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B326">
         <v>2</v>
       </c>
       <c r="C326">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D326" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B327">
         <v>2</v>
       </c>
       <c r="C327">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D327" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C328">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D328" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C329">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D329" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
-        <v>67</v>
+        <v>227</v>
       </c>
       <c r="B330">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C330">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="D330" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A331" t="s">
-        <v>69</v>
-      </c>
-      <c r="B331">
-        <v>1</v>
-      </c>
-      <c r="C331">
-        <v>2014</v>
-      </c>
-      <c r="D331" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A332" t="s">
-        <v>71</v>
-      </c>
-      <c r="B332">
-        <v>1</v>
-      </c>
-      <c r="C332">
-        <v>2014</v>
-      </c>
-      <c r="D332" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
